--- a/1_simulate/data/parameter.xlsx
+++ b/1_simulate/data/parameter.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25125"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gamma" sheetId="1" r:id="rId1"/>
-    <sheet name="other" sheetId="2" r:id="rId2"/>
+    <sheet name="p" sheetId="2" r:id="rId2"/>
+    <sheet name="ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>var</t>
   </si>
@@ -47,19 +48,70 @@
     <t>Presymptomatic infections transferred into symptomatic infections</t>
   </si>
   <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>un_vaccine</t>
+  </si>
+  <si>
+    <t>full_vaccine</t>
+  </si>
+  <si>
+    <t>booster_vaccine</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>Percent of asymptomatic infections</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-</t>
+  </si>
+  <si>
+    <t>relative susceptibility</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
-    <t>gamma_1</t>
-  </si>
-  <si>
-    <t>Asymptomatic infections transferred into R</t>
-  </si>
-  <si>
-    <t>gamma_2</t>
-  </si>
-  <si>
-    <t>Symptomatic infections transferred into R</t>
+    <t>relative susceptibility to infection</t>
   </si>
 </sst>
 </file>
@@ -67,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +142,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -98,14 +188,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,111 +276,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,25 +286,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,145 +352,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +477,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,16 +529,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,36 +553,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -537,153 +582,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,15 +1084,15 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
-    <col min="3" max="3" width="11.1" customWidth="1"/>
-    <col min="4" max="4" width="10.9" customWidth="1"/>
+    <col min="2" max="2" width="52.5037037037037" customWidth="1"/>
+    <col min="3" max="3" width="11.1037037037037" customWidth="1"/>
+    <col min="4" max="4" width="10.8962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1113,48 +1161,460 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="28.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="15.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0.31</v>
+      </c>
+      <c r="D2">
+        <v>0.31</v>
+      </c>
+      <c r="E2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0.31</v>
+      </c>
+      <c r="D3">
+        <v>0.31</v>
+      </c>
+      <c r="E3">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.31</v>
+      </c>
+      <c r="D4">
+        <v>0.31</v>
+      </c>
+      <c r="E4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0.31</v>
+      </c>
+      <c r="D5">
+        <v>0.31</v>
+      </c>
+      <c r="E5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.31</v>
+      </c>
+      <c r="D6">
+        <v>0.31</v>
+      </c>
+      <c r="E6">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0.31</v>
+      </c>
+      <c r="D7">
+        <v>0.31</v>
+      </c>
+      <c r="E7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0.31</v>
+      </c>
+      <c r="D8">
+        <v>0.31</v>
+      </c>
+      <c r="E8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0.31</v>
+      </c>
+      <c r="D9">
+        <v>0.31</v>
+      </c>
+      <c r="E9">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0.31</v>
+      </c>
+      <c r="D10">
+        <v>0.31</v>
+      </c>
+      <c r="E10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.31</v>
+      </c>
+      <c r="D11">
+        <v>0.31</v>
+      </c>
+      <c r="E11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0.31</v>
+      </c>
+      <c r="D12">
+        <v>0.31</v>
+      </c>
+      <c r="E12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0.31</v>
+      </c>
+      <c r="D13">
+        <v>0.31</v>
+      </c>
+      <c r="E13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.31</v>
+      </c>
+      <c r="D14">
+        <v>0.31</v>
+      </c>
+      <c r="E14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>0.31</v>
+      </c>
+      <c r="D15">
+        <v>0.31</v>
+      </c>
+      <c r="E15">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
-    <col min="4" max="4" width="9.2" customWidth="1"/>
+    <col min="1" max="1" width="20.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
